--- a/68Bus_SG_IBR_PassiveLoad.xlsx
+++ b/68Bus_SG_IBR_PassiveLoad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A07AD-38E7-4DA4-8B60-F5DE4AE610FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A7AAF-10D1-489D-BE53-31C22E4C58CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -355,6 +360,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -706,25 +714,25 @@
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>40</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>-999</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="6">
         <v>999</v>
       </c>
       <c r="K3">
@@ -751,7 +759,7 @@
         <f>5.45</f>
         <v>5.45</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="15">
         <v>0</v>
       </c>
       <c r="G4" s="6">
@@ -789,7 +797,7 @@
       <c r="E5" s="6">
         <v>6.5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
       <c r="G5" s="6">
@@ -827,7 +835,7 @@
       <c r="E6" s="6">
         <v>6.32</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="6">
@@ -865,7 +873,7 @@
       <c r="E7" s="6">
         <v>5.05</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="6">
@@ -903,7 +911,7 @@
       <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="6">
@@ -941,7 +949,7 @@
       <c r="E9" s="6">
         <v>5.6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="6">
@@ -979,7 +987,7 @@
       <c r="E10" s="6">
         <v>5.4</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="6">
@@ -1017,7 +1025,7 @@
       <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="6">
@@ -1055,7 +1063,7 @@
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="6">
@@ -1093,7 +1101,7 @@
       <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="6">
@@ -1131,7 +1139,7 @@
       <c r="E14" s="6">
         <v>13.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="6">
@@ -1169,7 +1177,7 @@
       <c r="E15" s="6">
         <v>35.909999999999997</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="6">
@@ -1207,7 +1215,7 @@
       <c r="E16" s="6">
         <v>17.850000000000001</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="6">
@@ -1245,7 +1253,7 @@
       <c r="E17" s="6">
         <v>10</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="6">
@@ -1277,25 +1285,25 @@
       <c r="C18" s="13">
         <v>1.0449999999999999</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>2.5</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>-999</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="6">
         <v>999</v>
       </c>
       <c r="K18">
@@ -1321,7 +1329,7 @@
       <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="6">
